--- a/data/misc/tankData.xlsx
+++ b/data/misc/tankData.xlsx
@@ -25,13 +25,13 @@
     <t>capacity</t>
   </si>
   <si>
-    <t>maxDepth</t>
-  </si>
-  <si>
-    <t>miscInfo</t>
-  </si>
-  <si>
-    <t>chartSource</t>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>misc_info</t>
+  </si>
+  <si>
+    <t>chart_source</t>
   </si>
   <si>
     <t>30k126_generic</t>

--- a/data/misc/tankData.xlsx
+++ b/data/misc/tankData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -34,28 +34,28 @@
     <t>chart_source</t>
   </si>
   <si>
-    <t>30k126_generic</t>
+    <t>30k126</t>
   </si>
   <si>
     <t>Standard</t>
   </si>
   <si>
-    <t>25k126_generic</t>
-  </si>
-  <si>
-    <t>20k126_generic</t>
-  </si>
-  <si>
-    <t>15k126_generic</t>
-  </si>
-  <si>
-    <t>12k126_generic</t>
-  </si>
-  <si>
-    <t>10k126_generic</t>
-  </si>
-  <si>
-    <t>8k126_generic</t>
+    <t>25k126</t>
+  </si>
+  <si>
+    <t>20k126</t>
+  </si>
+  <si>
+    <t>15k126</t>
+  </si>
+  <si>
+    <t>12k126</t>
+  </si>
+  <si>
+    <t>10k126</t>
+  </si>
+  <si>
+    <t>8k126</t>
   </si>
   <si>
     <r>
@@ -67,140 +67,137 @@
         <i val="0"/>
         <color theme="1"/>
       </rPr>
-      <t>119_generic</t>
+      <t>119</t>
     </r>
   </si>
   <si>
-    <t>12k119_generic</t>
-  </si>
-  <si>
-    <t>10k119_generic</t>
-  </si>
-  <si>
-    <t>8k119_generic</t>
-  </si>
-  <si>
-    <t>15k96_generic</t>
-  </si>
-  <si>
-    <t>12k96_generic</t>
-  </si>
-  <si>
-    <t>10k96_generic</t>
-  </si>
-  <si>
-    <t>8k96_generic</t>
-  </si>
-  <si>
-    <t>7500k96_generic</t>
-  </si>
-  <si>
-    <t>6k96_generic</t>
-  </si>
-  <si>
-    <t>5k96_generic</t>
-  </si>
-  <si>
-    <t>4k96_generic</t>
-  </si>
-  <si>
-    <t>15k91_generic</t>
-  </si>
-  <si>
-    <t>12k91_generic</t>
-  </si>
-  <si>
-    <t>10k91_generic</t>
-  </si>
-  <si>
-    <t>8k91_generic</t>
-  </si>
-  <si>
-    <t>6k91_generic</t>
-  </si>
-  <si>
-    <t>4k91_generic</t>
-  </si>
-  <si>
-    <t>5k64_generic</t>
-  </si>
-  <si>
-    <t>4k64_generic</t>
-  </si>
-  <si>
-    <t>3k64_generic</t>
-  </si>
-  <si>
-    <t>2k64_generic</t>
-  </si>
-  <si>
-    <t>ws1t19951</t>
-  </si>
-  <si>
-    <t>ws1t11594</t>
-  </si>
-  <si>
-    <t>ws1t7796</t>
-  </si>
-  <si>
-    <t>ws1t4021</t>
-  </si>
-  <si>
-    <t>ws2t19951</t>
-  </si>
-  <si>
-    <t>ws2t5920</t>
-  </si>
-  <si>
-    <t>ws2t7796</t>
-  </si>
-  <si>
-    <t>ws2t5897</t>
-  </si>
-  <si>
-    <t>ws2t4021</t>
-  </si>
-  <si>
-    <t>dwt4021</t>
-  </si>
-  <si>
-    <t>dwt8k</t>
-  </si>
-  <si>
-    <t>dwt12k</t>
-  </si>
-  <si>
-    <t>dwt19951</t>
-  </si>
-  <si>
-    <t>j2t20k</t>
+    <t>12k119</t>
+  </si>
+  <si>
+    <t>10k119</t>
+  </si>
+  <si>
+    <t>8k119</t>
+  </si>
+  <si>
+    <t>15k96</t>
+  </si>
+  <si>
+    <t>12k96</t>
+  </si>
+  <si>
+    <t>10k96</t>
+  </si>
+  <si>
+    <t>8k96</t>
+  </si>
+  <si>
+    <t>7_5k96</t>
+  </si>
+  <si>
+    <t>6k96</t>
+  </si>
+  <si>
+    <t>5k96</t>
+  </si>
+  <si>
+    <t>4k96</t>
+  </si>
+  <si>
+    <t>15k91</t>
+  </si>
+  <si>
+    <t>12k91</t>
+  </si>
+  <si>
+    <t>10k91</t>
+  </si>
+  <si>
+    <t>8k91</t>
+  </si>
+  <si>
+    <t>6k91</t>
+  </si>
+  <si>
+    <t>4k91</t>
+  </si>
+  <si>
+    <t>5k64</t>
+  </si>
+  <si>
+    <t>4k64</t>
+  </si>
+  <si>
+    <t>3k64</t>
+  </si>
+  <si>
+    <t>2k64</t>
+  </si>
+  <si>
+    <t>20k_ws1</t>
+  </si>
+  <si>
+    <t>12k_ws1</t>
+  </si>
+  <si>
+    <t>8k_ws1</t>
+  </si>
+  <si>
+    <t>4k_ws1</t>
+  </si>
+  <si>
+    <t>20k_ws2</t>
+  </si>
+  <si>
+    <t>6k_ws2</t>
+  </si>
+  <si>
+    <t>8k_ws2</t>
+  </si>
+  <si>
+    <t>4k_ws2</t>
+  </si>
+  <si>
+    <t>4k_dwt</t>
+  </si>
+  <si>
+    <t>8k_dwt</t>
+  </si>
+  <si>
+    <t>12k_dwt</t>
+  </si>
+  <si>
+    <t>20k_dwt</t>
+  </si>
+  <si>
+    <t>20k_j2</t>
   </si>
   <si>
     <t>Jonesville 2</t>
   </si>
   <si>
-    <t>j2t12k</t>
-  </si>
-  <si>
-    <t>e2t15k</t>
+    <t>12k_j2</t>
+  </si>
+  <si>
+    <t>15k89_e2</t>
   </si>
   <si>
     <t>Elkin 2</t>
   </si>
   <si>
-    <t>e2t10k</t>
-  </si>
-  <si>
-    <t>20k118_711</t>
-  </si>
-  <si>
-    <t>8k118_711</t>
-  </si>
-  <si>
-    <t>12k118_711</t>
-  </si>
-  <si>
-    <t>12k92_generic</t>
+    <t>10k89_e2</t>
+  </si>
+  <si>
+    <t>20k118</t>
+  </si>
+  <si>
+    <t>8k118</t>
+  </si>
+  <si>
+    <t>12k118</t>
+  </si>
+  <si>
+    <t>12k92</t>
   </si>
   <si>
     <t>Owens-Corning</t>
@@ -1113,7 +1110,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>8</v>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
@@ -1147,7 +1144,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>8</v>
@@ -1164,7 +1161,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
@@ -1198,7 +1195,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>8</v>
@@ -1215,7 +1212,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
@@ -1230,12 +1227,12 @@
         <v>120.0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
@@ -1250,12 +1247,12 @@
         <v>91.0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>8</v>
@@ -1270,12 +1267,12 @@
         <v>119.0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>8</v>
@@ -1290,12 +1287,12 @@
         <v>89.0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>8</v>
@@ -1312,7 +1309,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>8</v>
@@ -1329,7 +1326,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>8</v>
@@ -1346,13 +1343,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D51" s="1">
         <v>11730.0</v>
@@ -1361,7 +1358,7 @@
         <v>92.0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
